--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brviaadministracaoxedqmstandards_edqmstandardsxbrviaadministracao.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/brviaadministracaoxedqmstandards_edqmstandardsxbrviaadministracao.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\Documents\GitHub\HSL-IPS\Entregaveis\Entrega_1_RepositorioSemantico\Imunizacao\ConceptMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\HSL-IPS\Entregaveis\1.RepositorioSemantico\Imunizacao\ConceptMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="brviaadministracaoxedqmstandard" sheetId="1" r:id="rId1"/>
@@ -6488,7 +6488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -6771,7 +6771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L996"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
